--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655191.5556939462</v>
+        <v>653303.9741775448</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>345.5949744532585</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>235.5263086498358</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>223.1498336210771</v>
+        <v>153.0861605212241</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>26.53815412835747</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>163.0915657041714</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>128.5001899129491</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>31.29558213980389</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>273.0874882044323</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>183.1439721715199</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586857</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.52687838733154</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>149.0799667719508</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>218.5843930538369</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1664,7 +1664,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>73.21532344290732</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>161.0156334937748</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>5.257139142586055</v>
+        <v>139.1537278750033</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>141.0915393486721</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>195.8155841663231</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U25" t="n">
-        <v>262.306353505601</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>25.5951892811641</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>82.16809304408301</v>
+        <v>21.8555388404744</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801206</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943742</v>
+        <v>90.21779139437413</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897901</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571495</v>
+        <v>55.21598883571487</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523576</v>
+        <v>54.76109577523567</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789549</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1540.921096014692</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C2" t="n">
-        <v>1540.921096014692</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233623</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="W2" t="n">
-        <v>1540.921096014692</v>
+        <v>1816.955293888755</v>
       </c>
       <c r="X2" t="n">
-        <v>1540.921096014692</v>
+        <v>1816.955293888755</v>
       </c>
       <c r="Y2" t="n">
-        <v>1540.921096014692</v>
+        <v>1579.049931616194</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>502.7251118619119</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="U4" t="n">
-        <v>502.7251118619119</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="V4" t="n">
-        <v>502.7251118619119</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2080756496231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1222.906241876376</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.342874726952</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.342874726952</v>
+        <v>2477.381446291977</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.342874726952</v>
+        <v>2477.381446291977</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.342874726952</v>
+        <v>2477.381446291977</v>
       </c>
       <c r="V5" t="n">
-        <v>2339.279987383381</v>
+        <v>2477.381446291977</v>
       </c>
       <c r="W5" t="n">
-        <v>1986.511332113267</v>
+        <v>2477.381446291977</v>
       </c>
       <c r="X5" t="n">
-        <v>1613.045573852188</v>
+        <v>2477.381446291977</v>
       </c>
       <c r="Y5" t="n">
-        <v>1222.906241876376</v>
+        <v>2477.381446291977</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>398.3338608103785</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>229.3976778824716</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>229.3976778824716</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>412.3028537806169</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>243.3030535189494</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>85.5546809514795</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>85.5546809514795</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2062.314335550585</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>1731.251448207015</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.140060718708</v>
+        <v>1378.482792936901</v>
       </c>
       <c r="X8" t="n">
-        <v>1463.674302457628</v>
+        <v>1005.017034675821</v>
       </c>
       <c r="Y8" t="n">
-        <v>1463.674302457628</v>
+        <v>614.8777027000092</v>
       </c>
     </row>
     <row r="9">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.4553696737762</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>544.5191867458693</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5027,10 +5027,10 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5124,19 +5124,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>953.6472828615139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V13" t="n">
-        <v>1009.867621687013</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>720.4504516500525</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,67 +5261,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636248</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>564.1830073829217</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799364</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557903</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352016</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>954.814612315055</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>726.8250614170377</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>564.1830073829217</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,16 +5589,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
         <v>1247.466478653857</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>822.9089152986055</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>653.9727323706986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>653.9727323706986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5701,22 +5701,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1293.686018915287</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U19" t="n">
-        <v>1004.557380128845</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>1004.557380128845</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>1004.557380128845</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>1004.557380128845</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>1004.557380128845</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5750,7 +5750,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5768,10 +5768,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5786,7 +5786,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>244.1070389581962</v>
+        <v>838.7979023112812</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>669.8617193833743</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>669.8617193833743</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705741</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705741</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5917,13 +5917,13 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5941,19 +5941,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609662</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550792</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W22" t="n">
-        <v>441.9005583181187</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X22" t="n">
-        <v>244.1070389581962</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="Y22" t="n">
-        <v>244.1070389581962</v>
+        <v>1020.446367141521</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514079</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6084,10 +6084,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
         <v>97.21709146028584</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531122</v>
       </c>
       <c r="U25" t="n">
-        <v>810.2549326310402</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>555.5704444251534</v>
+        <v>835.4163915387938</v>
       </c>
       <c r="W25" t="n">
-        <v>266.1532743881928</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>266.1532743881928</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6224,10 +6224,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.8632439327641</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>565.9270610048574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>415.8104215925216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>1473.062544011272</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>1183.645373974311</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>955.6558230762943</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>734.8632439327641</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,19 +6452,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,34 +6479,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542179</v>
+        <v>565.4200295030878</v>
       </c>
       <c r="C31" t="n">
-        <v>356.5343561723159</v>
+        <v>543.3437276440238</v>
       </c>
       <c r="D31" t="n">
-        <v>356.5343561723159</v>
+        <v>543.3437276440238</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723159</v>
+        <v>451.1914993430015</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557763</v>
+        <v>360.062417126462</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569676</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569676</v>
@@ -6619,13 +6619,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
         <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
         <v>997.6688721962053</v>
@@ -6640,31 +6640,31 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
         <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818929</v>
+        <v>902.6804289818937</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652462</v>
+        <v>730.4517433652471</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030869</v>
+        <v>565.4200295030878</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6674,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823779</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6716,34 +6716,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,10 +6880,10 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6923,43 +6923,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
         <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,28 +7114,28 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
         <v>772.2886129010318</v>
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,61 +7163,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L39" t="n">
-        <v>1196.088769018224</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M39" t="n">
-        <v>1503.408902298185</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962218</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,31 +7351,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010323</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,22 +7394,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
         <v>478.0475988506723</v>
@@ -7555,16 +7555,16 @@
         <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,16 +7573,16 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
         <v>1932.236826184156</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7646,13 +7646,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7713,13 +7713,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,19 +7728,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,13 +7807,13 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
@@ -7822,7 +7822,7 @@
         <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384657</v>
@@ -7834,7 +7834,7 @@
         <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8772,10 +8772,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>32.78140656352423</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9963,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>176.7176547498451</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>176.7176547498451</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23464,10 +23464,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>48.84084321165241</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>7.125262335200302</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>213.02202895567</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.56901985831999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,19 +23941,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>216.2904219158032</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>5.342423297897028</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,16 +24181,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>29.89407122271402</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U25" t="n">
-        <v>23.93099889297633</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,10 +24601,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338569</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>226.5424540426639</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>29.87547142598778</v>
+        <v>90.18802562959632</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965531</v>
+        <v>93.41221638965524</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801213</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897908</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>369468.7964389274</v>
       </c>
       <c r="C2" t="n">
+        <v>369468.7964389274</v>
+      </c>
+      <c r="D2" t="n">
         <v>369468.7964389272</v>
       </c>
-      <c r="D2" t="n">
-        <v>369468.7964389271</v>
-      </c>
       <c r="E2" t="n">
-        <v>351926.1537639381</v>
+        <v>351926.1537639383</v>
       </c>
       <c r="F2" t="n">
-        <v>351926.1537639382</v>
+        <v>351926.153763938</v>
       </c>
       <c r="G2" t="n">
-        <v>351926.1537639379</v>
+        <v>351926.153763938</v>
       </c>
       <c r="H2" t="n">
         <v>351926.1537639381</v>
       </c>
       <c r="I2" t="n">
+        <v>351926.1537639381</v>
+      </c>
+      <c r="J2" t="n">
         <v>351926.153763938</v>
       </c>
-      <c r="J2" t="n">
-        <v>351926.1537639382</v>
-      </c>
       <c r="K2" t="n">
-        <v>366139.9236107426</v>
+        <v>366139.9236107434</v>
       </c>
       <c r="L2" t="n">
-        <v>369468.7964389283</v>
+        <v>369468.7964389282</v>
       </c>
       <c r="M2" t="n">
-        <v>369468.7964389277</v>
+        <v>369468.7964389278</v>
       </c>
       <c r="N2" t="n">
         <v>369468.7964389278</v>
       </c>
       <c r="O2" t="n">
-        <v>369468.7964389282</v>
+        <v>369468.7964389281</v>
       </c>
       <c r="P2" t="n">
-        <v>369468.7964389283</v>
+        <v>369468.796438928</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284569</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086692</v>
+        <v>10342.90680086682</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.6053028457</v>
       </c>
     </row>
     <row r="4">
@@ -26427,34 +26427,34 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143907</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563564</v>
+        <v>33210.29213563562</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="N4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.45686275956</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275957</v>
@@ -26476,13 +26476,13 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26494,19 +26494,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-460133.1190902492</v>
       </c>
       <c r="C6" t="n">
+        <v>129834.7601242953</v>
+      </c>
+      <c r="D6" t="n">
         <v>129834.7601242952</v>
       </c>
-      <c r="D6" t="n">
-        <v>129834.760124295</v>
-      </c>
       <c r="E6" t="n">
-        <v>-280266.8782831136</v>
+        <v>-280364.3374090858</v>
       </c>
       <c r="F6" t="n">
-        <v>244893.1581937824</v>
+        <v>244795.6990678101</v>
       </c>
       <c r="G6" t="n">
-        <v>244893.1581937821</v>
+        <v>244795.6990678101</v>
       </c>
       <c r="H6" t="n">
-        <v>244893.1581937824</v>
+        <v>244795.6990678102</v>
       </c>
       <c r="I6" t="n">
-        <v>244893.1581937823</v>
+        <v>244795.6990678102</v>
       </c>
       <c r="J6" t="n">
-        <v>68469.93900118946</v>
+        <v>68372.47987521718</v>
       </c>
       <c r="K6" t="n">
-        <v>192138.8176420385</v>
+        <v>192120.3239041049</v>
       </c>
       <c r="L6" t="n">
-        <v>223946.3269552764</v>
+        <v>223946.3269552763</v>
       </c>
       <c r="M6" t="n">
-        <v>99488.21852230551</v>
+        <v>99488.21852230579</v>
       </c>
       <c r="N6" t="n">
-        <v>234289.2337561429</v>
+        <v>234289.2337561428</v>
       </c>
       <c r="O6" t="n">
-        <v>234289.2337561433</v>
+        <v>234289.2337561431</v>
       </c>
       <c r="P6" t="n">
-        <v>190126.6284532976</v>
+        <v>190126.6284532974</v>
       </c>
     </row>
   </sheetData>
@@ -26707,19 +26707,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964062</v>
@@ -26744,13 +26744,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26759,25 +26759,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108365</v>
+        <v>12.92863350108352</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9.088067167424413</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>150.7116300062178</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.885271837007195</v>
+        <v>71.94894493686019</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>27.94024844645424</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>11.32414710480015</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>17.93377273362012</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>13.90437704873311</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>109.6463534590483</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>68.08019533676941</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.59587156758277</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>282.0391115195485</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>693.6972596887384</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412256</v>
+        <v>67.71102679412265</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043179</v>
+        <v>94.42895660043187</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>487.1420318003114</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>268.0367344586612</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>487.1420318003114</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38111,7 +38111,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
